--- a/IMS/App_Data/Indicator.xlsx
+++ b/IMS/App_Data/Indicator.xlsx
@@ -35,262 +35,262 @@
   </si>
   <si>
     <t>百分比</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>计算指标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>=CD型病例总数÷病例总数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>总监办</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CD型病例总数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>例次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>病案管理系统</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CT检查阳性例数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>例数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>=CT检查阳性例数÷CT检查总例数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CT检查总例数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>例数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MRI检查阳性例数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>=MRI检查阳性例数÷MRI检查总例数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MRI检查总例数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>病床使用率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>=实际占用总床日数÷实际开发总床日数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>百分比</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>=病历回收数÷病例总数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>病历回收数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>份</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>病案统计室</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>病例总数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>病案管理系统</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>大型X线设备检查阳性例数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>=大型X线设备检查阳性例数÷大型X线设备检查总例数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>大型X线设备检查总例数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>平均住院天数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>天数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>入院人次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>人次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>总监办</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>实际开发总床日数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>床·日</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>实际占用总床日数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手术冰冻与石蜡诊报告总例数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>病案统计室</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手术冰冻与石蜡诊断符合例数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>例次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>病案统计室</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手术人次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>人次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手术总例数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>台数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>=四级手术例数÷手术总例数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>四级手术例数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>台数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>药品费用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>元</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>财务部</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>药品费用比例</t>
   </si>
   <si>
     <t>=药品费用÷总费用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>总费用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>指标名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是否自动获取</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>自动获取数据来源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>非自动获取数据来源部门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>算法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>责任部门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>N/A</t>
@@ -304,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,21 +314,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -370,18 +355,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -694,756 +670,723 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="42.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
     <col min="5" max="5" width="18.375" customWidth="1"/>
     <col min="6" max="6" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="E3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="E6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="E9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="F12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+      <c r="E13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="E16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="E17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="E18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+      <c r="E19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+      <c r="E20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+      <c r="F21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="F22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="E23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+      <c r="E24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="E26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+      <c r="F27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="D29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
